--- a/Rozvrh_hodin_barevny_NP.xlsx
+++ b/Rozvrh_hodin_barevny_NP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\git_tutorial\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <r>
       <t xml:space="preserve">1
@@ -866,6 +866,9 @@
       <t>Hlaváč
 1.MI</t>
     </r>
+  </si>
+  <si>
+    <t>aaaa</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1697,6 +1700,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2006,10 +2012,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2018,7 +2024,7 @@
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -2217,7 +2223,7 @@
       <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -2404,6 +2410,11 @@
         <v>24</v>
       </c>
       <c r="M13" s="27"/>
+    </row>
+    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="51" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
